--- a/Registro/tbl_Registro_v1.1.xlsx
+++ b/Registro/tbl_Registro_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grego\Desktop\ITS Tech Talent Factory\Materiale del corso\Basi di Dati\DATABASE-FSD1\Registro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C16A34-35C7-4BBE-A157-C6B2EEE75012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E61D7-5472-4579-BF27-9C6BFDFB0684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A13CAFEC-9B05-48C3-A700-6122505BF81D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="50">
   <si>
     <t>Campo</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>CHAR(16)</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +267,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -578,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B3C40F-E4BE-4F03-A053-01B1B734AC68}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="152" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -632,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -645,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
@@ -660,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="7"/>
@@ -670,11 +675,11 @@
         <v>9</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -698,7 +703,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
@@ -713,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -725,7 +730,7 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="2"/>
@@ -755,6 +760,9 @@
         <v>44</v>
       </c>
       <c r="E12" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -764,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8ACC99-FE21-4803-B9F3-0F8E45B3E7D5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +847,9 @@
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
@@ -860,6 +870,9 @@
         <v>47</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -870,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565CDCA4-230C-472E-B379-C5E9C42A90DD}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCBC4A6-84DC-4697-A438-6282ACE23149}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
